--- a/lib/APGCMS/APGCMS/lib/lib_urine_CalibrationCurve_SuccinicAcidD4_20160412.xlsx
+++ b/lib/APGCMS/APGCMS/lib/lib_urine_CalibrationCurve_SuccinicAcidD4_20160412.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="26240" yWindow="1860" windowWidth="24840" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CalibrationCurve_Apr1116_combin" sheetId="1" r:id="rId1"/>
@@ -660,10 +660,10 @@
     <t>HMDB_ISTD1</t>
   </si>
   <si>
-    <t>Succinic acid (ISTD)</t>
-  </si>
-  <si>
     <t>ISTD</t>
+  </si>
+  <si>
+    <t>Succinate-D4 (ISTD)</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4309,22 +4309,22 @@
         <v>212</v>
       </c>
       <c r="C102" t="s">
+        <v>214</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" t="s">
         <v>213</v>
-      </c>
-      <c r="D102" t="s">
-        <v>19</v>
-      </c>
-      <c r="E102" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
